--- a/FarmingTime/FarmingTime/resource/config/开发计划.xlsx
+++ b/FarmingTime/FarmingTime/resource/config/开发计划.xlsx
@@ -104,15 +104,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改为exml格式，周末老公给改，么么哒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>读档存档功能实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>周末问老公，么么么么哒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为excel格式，周末老公给改，么么哒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,7 +557,9 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>20160708</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -625,16 +627,16 @@
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C14" s="2"/>
     </row>
